--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugol\Desktop\TIMES_TUe\Model_MSc_SELECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9A3ED3-8E8D-47CF-9A0A-9D6DCB0E70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412ADA9-494A-482B-9257-65C644F6E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -360,37 +360,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Maciej Raczyński</author>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">Dozwolone Zbiory Procesów
-ELE (Elektrownia)
-CHP (Elektrociepłownia)
-STGTSS (Elektrownia Szczyt-Pompowa)
-PRE (Dowolny Proces/Technologia)
-DMD (Proces Popytu)
-IMP (Import)
-EXP (Eksport)
-MIN (Proces Wydobycia/Kopalnia)
-RNW (Technologia Odnawialna*)
-HPL (Ciepłownia)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -573,6 +547,239 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F4B53DF6-885F-4626-ACE2-D1AC452333C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Combined Heat and Power)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>STGTSS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Import)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Renewable Technology)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HPL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -602,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -787,13 +994,40 @@
     <t>TWh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Electricity grid non-RES </t>
+    <t>ELC_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve"> Electricity grid RES </t>
+    <t>ELC_GRID_RES</t>
   </si>
   <si>
-    <t>ELC_FIN</t>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid RES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid non-RES </t>
+  </si>
+  <si>
+    <t>Supportive calculations below:</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENTSO data points</t>
   </si>
 </sst>
 </file>
@@ -824,9 +1058,9 @@
     <numFmt numFmtId="182" formatCode="yyyy"/>
     <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="185" formatCode="0.000"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
-  <fonts count="114">
+  <fonts count="112">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1458,20 +1692,6 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -1802,12 +2022,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1820,7 +2034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,8 +2278,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2394,7 +2616,7 @@
     <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="102" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2623,7 +2845,7 @@
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="103" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2782,18 +3004,18 @@
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2960,7 +3182,7 @@
     <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="106" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="104" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3020,37 +3242,37 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
@@ -3068,18 +3290,18 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
@@ -3158,7 +3380,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3167,7 +3389,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3296,24 +3518,24 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -3322,37 +3544,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
@@ -3577,7 +3799,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
@@ -3590,14 +3812,14 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3617,13 +3839,7 @@
     <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="43" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3631,8 +3847,6 @@
     <xf numFmtId="184" fontId="3" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3640,32 +3854,58 @@
     <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="99" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="1244"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="43" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="1244"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1263">
@@ -5050,7 +5290,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DEMAND!$C$11:$I$11</c:f>
+              <c:f>DEMAND!$C$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5080,9 +5320,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DEMAND!$C$12:$I$12</c:f>
+              <c:f>DEMAND!$C$13:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>109.39</c:v>
@@ -5209,7 +5449,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5864,14 +6104,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19707</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19853</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602413</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112159</xdr:rowOff>
+      <xdr:colOff>530155</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5894,7 +6134,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19707" y="2654008"/>
+          <a:off x="19707" y="3488267"/>
           <a:ext cx="6540758" cy="3764358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5908,13 +6148,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>11167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>518948</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>113643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6429,15 +6669,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -6449,11 +6689,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6483,111 +6723,136 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="1"/>
@@ -6606,8 +6871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6623,11 +6888,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -6660,83 +6925,87 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="38.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6748,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6764,7 +7033,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="9"/>
@@ -6783,69 +7052,98 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="31.9" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="str">
+      <c r="B7" s="27" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>ELC_FIN_DEM</v>
+      </c>
+      <c r="C7" s="27" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
       </c>
-      <c r="F7" s="20">
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="38"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>ELC_GRID_RES</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="38"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="E10" s="38"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="18"/>
+      <c r="D16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6855,10 +7153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6867,17 +7165,18 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="C1" s="33"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="3" spans="2:13" ht="18">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9"/>
@@ -6889,165 +7188,189 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="21">
         <v>2023</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="21">
         <v>2025</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="21">
         <v>2030</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="21">
         <v>2035</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="21">
         <v>2040</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="21">
         <v>2045</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="21">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15">
-        <f>+C12*3.6</f>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="41">
+        <f>C13*3.6</f>
         <v>393.80400000000003</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:I8" si="0">+D12*3.6</f>
+      <c r="D8" s="41">
+        <f>D13*3.6</f>
         <v>442.11863013698968</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" si="0"/>
+      <c r="E8" s="41">
+        <f>E13*3.6</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="15">
-        <f t="shared" si="0"/>
+      <c r="F8" s="41">
+        <f>F13*3.6</f>
         <v>698.03424657534129</v>
       </c>
-      <c r="G8" s="15">
-        <f t="shared" si="0"/>
+      <c r="G8" s="41">
+        <f>G13*3.6</f>
         <v>828</v>
       </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
+      <c r="H8" s="41">
+        <f>H13*3.6</f>
         <v>953.94986301369943</v>
       </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
+      <c r="I8" s="41">
+        <f>I13*3.6</f>
         <v>1081.9076712328817</v>
       </c>
       <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
-      <c r="M10" s="1"/>
+      <c r="C10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
-      <c r="C11" s="31">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" customHeight="1">
+      <c r="C12" s="21">
         <v>2023</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D12" s="21">
         <v>2025</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E12" s="21">
         <v>2030</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F12" s="21">
         <v>2035</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G12" s="21">
         <v>2040</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H12" s="21">
         <v>2045</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I12" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C13" s="38">
         <v>109.39</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
         <v>122.81073059360824</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E13" s="38">
         <v>157</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
         <v>193.89840182648368</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G13" s="38">
         <v>230</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
         <v>264.98607305936093</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
         <v>300.52990867580047</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="C14" s="28"/>
+    <row r="15" spans="2:13">
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="16" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="17" spans="3:12" ht="25.5" customHeight="1">
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+    <row r="16" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C16" s="26"/>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="18" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C18" s="1"/>
+    <row r="17" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="18" spans="3:12" ht="25.5" customHeight="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12" ht="26.25" customHeight="1"/>
-    <row r="20" spans="3:12" ht="25.5" customHeight="1"/>
-    <row r="26" spans="3:12" ht="16.5" customHeight="1"/>
+    <row r="19" spans="3:12" ht="26.25" customHeight="1">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="21" spans="3:12" ht="25.5" customHeight="1"/>
+    <row r="27" spans="3:12" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:I7"/>
@@ -7063,21 +7386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7221,7 +7529,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7237,28 +7578,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>